--- a/Bus_route/res/2번노선.xlsx
+++ b/Bus_route/res/2번노선.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="137">
   <si>
     <t>NAME</t>
   </si>
@@ -55,18 +55,48 @@
     <t>정화양로원</t>
   </si>
   <si>
+    <t>하단역</t>
+  </si>
+  <si>
     <t>모라주공아파트</t>
   </si>
   <si>
     <t>금곡주차장</t>
   </si>
   <si>
+    <t>엄궁사거리</t>
+  </si>
+  <si>
     <t>금곡주공1단지</t>
   </si>
   <si>
     <t>금곡역</t>
   </si>
   <si>
+    <t>부일전자디자인고교</t>
+  </si>
+  <si>
+    <t>하단교차로</t>
+  </si>
+  <si>
+    <t>하단1동주민센터</t>
+  </si>
+  <si>
+    <t>학장교</t>
+  </si>
+  <si>
+    <t>청우파크</t>
+  </si>
+  <si>
+    <t>덕천역</t>
+  </si>
+  <si>
+    <t>엄궁삼거리</t>
+  </si>
+  <si>
+    <t>서부산공업고등학교</t>
+  </si>
+  <si>
     <t>사상종합복지관</t>
   </si>
   <si>
@@ -76,13 +106,25 @@
     <t>사하구청.당리역</t>
   </si>
   <si>
-    <t>하단교차로</t>
-  </si>
-  <si>
-    <t>하단역</t>
-  </si>
-  <si>
-    <t>청우파크</t>
+    <t>다대자유아파트</t>
+  </si>
+  <si>
+    <t>괴정자유아파트</t>
+  </si>
+  <si>
+    <t>럭키아파트.주례역</t>
+  </si>
+  <si>
+    <t>감천사거리</t>
+  </si>
+  <si>
+    <t>금곡동행정복지센터</t>
+  </si>
+  <si>
+    <t>엄궁초등학교</t>
+  </si>
+  <si>
+    <t>낙동초등학교</t>
   </si>
   <si>
     <t>부산구치소</t>
@@ -91,82 +133,109 @@
     <t>사상구청</t>
   </si>
   <si>
+    <t>동매역</t>
+  </si>
+  <si>
     <t>동아대입구</t>
   </si>
   <si>
-    <t>동매역</t>
-  </si>
-  <si>
-    <t>하단1동주민센터</t>
+    <t>금곡동주민센터</t>
   </si>
   <si>
     <t>주감중학교</t>
   </si>
   <si>
-    <t>금곡동주민센터</t>
-  </si>
-  <si>
-    <t>금곡동행정복지센터</t>
+    <t>만덕1동행정복지센터</t>
+  </si>
+  <si>
+    <t>북구청</t>
   </si>
   <si>
     <t>만덕2동주민센터</t>
   </si>
   <si>
-    <t>만덕1동행정복지센터</t>
-  </si>
-  <si>
     <t>부산북부고용노동지청</t>
   </si>
   <si>
+    <t>자유아파트</t>
+  </si>
+  <si>
+    <t>여성문화회관</t>
+  </si>
+  <si>
+    <t>금곡중학교</t>
+  </si>
+  <si>
+    <t>모라1동행정복지센터</t>
+  </si>
+  <si>
     <t>사상우체국</t>
   </si>
   <si>
-    <t>금곡중학교</t>
-  </si>
-  <si>
-    <t>자유아파트</t>
-  </si>
-  <si>
-    <t>여성문화회관</t>
-  </si>
-  <si>
-    <t>모라1동행정복지센터</t>
+    <t>구평화신아파트</t>
+  </si>
+  <si>
+    <t>동양아파트</t>
+  </si>
+  <si>
+    <t>다대포항역</t>
   </si>
   <si>
     <t>대티터널입구</t>
   </si>
   <si>
-    <t>괴정자유아파트</t>
+    <t>동산삼거리</t>
   </si>
   <si>
     <t>숙등역.부민병원</t>
   </si>
   <si>
+    <t>부산과학기술대학교</t>
+  </si>
+  <si>
+    <t>만덕시장입구</t>
+  </si>
+  <si>
     <t>화명중학교</t>
   </si>
   <si>
-    <t>만덕시장입구</t>
-  </si>
-  <si>
-    <t>북구청</t>
-  </si>
-  <si>
-    <t>부산과학기술대학교</t>
-  </si>
-  <si>
-    <t>엄궁초등학교</t>
+    <t>덕천교차로</t>
   </si>
   <si>
     <t>모라새마을금고</t>
   </si>
   <si>
+    <t>동원아파트</t>
+  </si>
+  <si>
+    <t>주례사거리</t>
+  </si>
+  <si>
     <t>청소년지원센터.모덕역</t>
   </si>
   <si>
-    <t>동원아파트</t>
-  </si>
-  <si>
-    <t>부일전자디자인고교</t>
+    <t>다대포항역.다대수협</t>
+  </si>
+  <si>
+    <t>다대농협</t>
+  </si>
+  <si>
+    <t>뉴코아아울렛</t>
+  </si>
+  <si>
+    <t>장림중소기업은행</t>
+  </si>
+  <si>
+    <t>신장림역</t>
+  </si>
+  <si>
+    <t>괴정시장.괴정역</t>
+  </si>
+  <si>
+    <t>괴정사거리</t>
+  </si>
+  <si>
+    <t>구평초등학교</t>
   </si>
   <si>
     <t>YK스틸</t>
@@ -175,34 +244,64 @@
     <t>장림1동행정복지센터</t>
   </si>
   <si>
+    <t>대림아파트</t>
+  </si>
+  <si>
+    <t>금곡종합사회복지관</t>
+  </si>
+  <si>
     <t>모라주공3.4단지</t>
   </si>
   <si>
+    <t>구포역</t>
+  </si>
+  <si>
+    <t>신한은행</t>
+  </si>
+  <si>
+    <t>반도보라아파트</t>
+  </si>
+  <si>
     <t>만덕교차로.만덕역</t>
   </si>
   <si>
     <t>구명역</t>
   </si>
   <si>
+    <t>영남중학교</t>
+  </si>
+  <si>
+    <t>덕포시장</t>
+  </si>
+  <si>
+    <t>동원로얄듀크아파트</t>
+  </si>
+  <si>
+    <t>엄궁동부산은행</t>
+  </si>
+  <si>
     <t>낫개역</t>
   </si>
   <si>
-    <t>엄궁동부산은행</t>
-  </si>
-  <si>
-    <t>덕포시장</t>
-  </si>
-  <si>
     <t>학장교차로</t>
   </si>
   <si>
+    <t>백양고입구</t>
+  </si>
+  <si>
+    <t>남산정역</t>
+  </si>
+  <si>
     <t>구평동주민센터</t>
   </si>
   <si>
-    <t>구평화신아파트</t>
-  </si>
-  <si>
-    <t>금곡종합사회복지관</t>
+    <t>케스텍코리아</t>
+  </si>
+  <si>
+    <t>당리중학교</t>
+  </si>
+  <si>
+    <t>학장중학교</t>
   </si>
   <si>
     <t>좋은삼선병원</t>
@@ -211,70 +310,100 @@
     <t>다대롯데캐슬블루</t>
   </si>
   <si>
+    <t>신평역</t>
+  </si>
+  <si>
+    <t>다대회센터</t>
+  </si>
+  <si>
+    <t>삼성여고</t>
+  </si>
+  <si>
+    <t>구평고개</t>
+  </si>
+  <si>
+    <t>삼락동주민센터</t>
+  </si>
+  <si>
     <t>금곡주공4단지후문</t>
   </si>
   <si>
+    <t>신모라입구</t>
+  </si>
+  <si>
     <t>덕포역.덕포2동행정복지센터</t>
   </si>
   <si>
-    <t>삼락동주민센터</t>
-  </si>
-  <si>
-    <t>신모라입구</t>
-  </si>
-  <si>
-    <t>당리중학교</t>
+    <t>구포시장</t>
+  </si>
+  <si>
+    <t>와석</t>
+  </si>
+  <si>
+    <t>을숙도문화회관</t>
+  </si>
+  <si>
+    <t>엄궁롯데캐슬</t>
   </si>
   <si>
     <t>에덴공원</t>
   </si>
   <si>
-    <t>을숙도문화회관</t>
+    <t>괴정역.괴정사거리</t>
+  </si>
+  <si>
+    <t>신평</t>
   </si>
   <si>
     <t>다대포해수욕장</t>
   </si>
   <si>
+    <t>다대우신아파트</t>
+  </si>
+  <si>
+    <t>북부산농협신만덕지점</t>
+  </si>
+  <si>
+    <t>덕천주공입구</t>
+  </si>
+  <si>
+    <t>모라주공1단지</t>
+  </si>
+  <si>
     <t>동문굿모닝힐아파트</t>
   </si>
   <si>
-    <t>북부산농협신만덕지점</t>
+    <t>구포전화국</t>
   </si>
   <si>
     <t>홈플러스</t>
   </si>
   <si>
-    <t>모라주공1단지</t>
-  </si>
-  <si>
-    <t>덕천주공입구</t>
-  </si>
-  <si>
     <t>유림아파트</t>
   </si>
   <si>
-    <t>구포전화국</t>
+    <t>감전동주민센터</t>
+  </si>
+  <si>
+    <t>화명역.화신중</t>
+  </si>
+  <si>
+    <t>엄궁시장</t>
+  </si>
+  <si>
+    <t>포천초교.태경해피타운</t>
+  </si>
+  <si>
+    <t>주감초등학교</t>
+  </si>
+  <si>
+    <t>백양중학교</t>
   </si>
   <si>
     <t>럭키슈퍼</t>
   </si>
   <si>
-    <t>덕천교차로</t>
-  </si>
-  <si>
-    <t>주감초등학교</t>
-  </si>
-  <si>
-    <t>구포시장</t>
-  </si>
-  <si>
-    <t>포천초교.태경해피타운</t>
-  </si>
-  <si>
-    <t>감전동주민센터</t>
-  </si>
-  <si>
-    <t>엄궁시장</t>
+    <t>동원역</t>
   </si>
   <si>
     <t>우신모라아파트</t>
@@ -283,16 +412,19 @@
     <t>금곡주공4단지</t>
   </si>
   <si>
+    <t>능인사</t>
+  </si>
+  <si>
     <t>덕포초.부산도서관</t>
   </si>
   <si>
     <t>북구</t>
   </si>
   <si>
+    <t>사하구</t>
+  </si>
+  <si>
     <t>사상구</t>
-  </si>
-  <si>
-    <t>사하구</t>
   </si>
 </sst>
 </file>
@@ -650,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +834,7 @@
         <v>21080531006</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E2">
         <v>35.19503059</v>
@@ -740,7 +872,7 @@
         <v>21080531012</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>35.19517086</v>
@@ -775,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>21080621011</v>
+        <v>21080621006</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E4">
-        <v>35.2436286</v>
+        <v>35.24374565</v>
       </c>
       <c r="F4">
-        <v>129.0196155</v>
+        <v>129.0194008</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -813,16 +945,16 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>21080621006</v>
+        <v>21080621011</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E5">
-        <v>35.24374565</v>
+        <v>35.2436286</v>
       </c>
       <c r="F5">
-        <v>129.0194008</v>
+        <v>129.0196155</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -851,34 +983,34 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>21150541002</v>
+        <v>21100571002</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E6">
-        <v>35.184566</v>
+        <v>35.10634479</v>
       </c>
       <c r="F6">
-        <v>129.0011825</v>
+        <v>128.9663905</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -889,22 +1021,22 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>21080541012</v>
+        <v>21150541002</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E7">
-        <v>35.26747062</v>
+        <v>35.184566</v>
       </c>
       <c r="F7">
-        <v>129.0178049</v>
+        <v>129.0011825</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -913,10 +1045,10 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -924,37 +1056,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>21150541003</v>
+        <v>21080541012</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E8">
-        <v>35.18474352</v>
+        <v>35.26747062</v>
       </c>
       <c r="F8">
-        <v>129.0011875</v>
+        <v>129.0178049</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -965,34 +1097,34 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>21080541001</v>
+        <v>21150541003</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E9">
-        <v>35.26766853</v>
+        <v>35.18474352</v>
       </c>
       <c r="F9">
-        <v>129.0179787</v>
+        <v>129.0011875</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1000,37 +1132,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>21080541002</v>
+        <v>21100561005</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E10">
-        <v>35.26715898</v>
+        <v>35.10580737</v>
       </c>
       <c r="F10">
-        <v>129.0185996</v>
+        <v>128.9673816</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1038,37 +1170,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>50000002929</v>
+        <v>21080541001</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E11">
-        <v>35.26716208</v>
+        <v>35.26766853</v>
       </c>
       <c r="F11">
-        <v>129.0173076</v>
+        <v>129.0179787</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1076,37 +1208,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>21150601012</v>
+        <v>21100561020</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E12">
-        <v>35.15582721</v>
+        <v>35.10611708</v>
       </c>
       <c r="F12">
-        <v>128.9947379</v>
+        <v>128.9652591</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1114,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>21150591006</v>
+        <v>21150641017</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E13">
-        <v>35.1548615</v>
+        <v>35.13154567</v>
       </c>
       <c r="F13">
-        <v>128.9909335</v>
+        <v>128.9726525</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1144,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1152,19 +1284,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>21100551005</v>
+        <v>21080541002</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E14">
-        <v>35.10358746</v>
+        <v>35.26715898</v>
       </c>
       <c r="F14">
-        <v>128.9741856</v>
+        <v>129.0185996</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1173,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1193,34 +1325,34 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>21150591008</v>
+        <v>50000002929</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E15">
-        <v>35.1550072</v>
+        <v>35.26716208</v>
       </c>
       <c r="F15">
-        <v>128.9907053</v>
+        <v>129.0173076</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1228,25 +1360,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>50000000046</v>
+        <v>21100651008</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E16">
-        <v>35.10749858</v>
+        <v>35.08999241</v>
       </c>
       <c r="F16">
-        <v>128.9673871</v>
+        <v>128.9995111</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1258,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1266,25 +1398,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>21100561005</v>
+        <v>50000000046</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E17">
-        <v>35.10580737</v>
+        <v>35.10749858</v>
       </c>
       <c r="F17">
-        <v>128.9673816</v>
+        <v>128.9673871</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1296,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1304,37 +1436,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>21080581004</v>
+        <v>21100561006</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E18">
-        <v>35.20989831</v>
+        <v>35.10388794</v>
       </c>
       <c r="F18">
-        <v>129.0160167</v>
+        <v>128.9637595</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1345,34 +1477,34 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>21080581003</v>
+        <v>21150631031</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E19">
-        <v>35.20968678</v>
+        <v>35.14140785</v>
       </c>
       <c r="F19">
-        <v>129.0160989</v>
+        <v>128.9834847</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1383,34 +1515,34 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>21150631036</v>
+        <v>21080581004</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E20">
-        <v>35.14667944</v>
+        <v>35.20989831</v>
       </c>
       <c r="F20">
-        <v>128.9947639</v>
+        <v>129.0160167</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1418,25 +1550,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>21150621005</v>
+        <v>21080571009</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E21">
-        <v>35.14645099</v>
+        <v>35.21093546</v>
       </c>
       <c r="F21">
-        <v>128.9949091</v>
+        <v>129.0080248</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1445,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1456,37 +1588,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>21150591007</v>
+        <v>21150581008</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E22">
-        <v>35.15277034</v>
+        <v>35.13190118</v>
       </c>
       <c r="F22">
-        <v>128.9904155</v>
+        <v>128.9721839</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1494,25 +1626,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>21100571006</v>
+        <v>21150631027</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E23">
-        <v>35.11260332</v>
+        <v>35.14145846</v>
       </c>
       <c r="F23">
-        <v>128.964507</v>
+        <v>128.983832</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1521,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1535,22 +1667,22 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>50000002056</v>
+        <v>21150561014</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E24">
-        <v>35.08986526</v>
+        <v>35.17498672</v>
       </c>
       <c r="F24">
-        <v>128.9741339</v>
+        <v>128.9886323</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1559,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1573,16 +1705,16 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>21100561006</v>
+        <v>21150601012</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E25">
-        <v>35.10388794</v>
+        <v>35.15582721</v>
       </c>
       <c r="F25">
-        <v>128.9637595</v>
+        <v>128.9947379</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1591,16 +1723,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1608,22 +1740,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>21100561004</v>
+        <v>21150591006</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E26">
-        <v>35.10431229</v>
+        <v>35.1548615</v>
       </c>
       <c r="F26">
-        <v>128.963989</v>
+        <v>128.9909335</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1635,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1646,37 +1778,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>21150601011</v>
+        <v>50000000502</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E27">
-        <v>35.15549786</v>
+        <v>35.10557575</v>
       </c>
       <c r="F27">
-        <v>128.9955049</v>
+        <v>128.9675998</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1687,34 +1819,34 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>21080541023</v>
+        <v>21100551005</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E28">
-        <v>35.250444</v>
+        <v>35.10358746</v>
       </c>
       <c r="F28">
-        <v>129.0125924</v>
+        <v>128.9741856</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1722,37 +1854,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>21150591013</v>
+        <v>21100621024</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E29">
-        <v>35.15500044</v>
+        <v>35.05157345</v>
       </c>
       <c r="F29">
-        <v>128.9917189</v>
+        <v>128.9709648</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1760,25 +1892,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>21080541024</v>
+        <v>21100511001</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E30">
-        <v>35.25013834</v>
+        <v>35.0990903</v>
       </c>
       <c r="F30">
-        <v>129.0126867</v>
+        <v>128.9895433</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1787,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1798,28 +1930,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>21080601010</v>
+        <v>21080581003</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E31">
-        <v>35.21005828</v>
+        <v>35.20968678</v>
       </c>
       <c r="F31">
-        <v>129.037611</v>
+        <v>129.0160989</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1828,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1839,22 +1971,22 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>21080591006</v>
+        <v>21150621004</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E32">
-        <v>35.21367712</v>
+        <v>35.15020883</v>
       </c>
       <c r="F32">
-        <v>129.0367254</v>
+        <v>129.0025857</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1863,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1874,25 +2006,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>21150561013</v>
+        <v>21100621013</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E33">
-        <v>35.17915576</v>
+        <v>35.05166167</v>
       </c>
       <c r="F33">
-        <v>128.9886762</v>
+        <v>128.9706535</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1901,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1912,22 +2044,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>21150571035</v>
+        <v>21150591008</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E34">
-        <v>35.16041194</v>
+        <v>35.1550072</v>
       </c>
       <c r="F34">
-        <v>128.9862184</v>
+        <v>128.9907053</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1942,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1950,37 +2082,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>21080541006</v>
+        <v>21100651018</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E35">
-        <v>35.26035522</v>
+        <v>35.08666098</v>
       </c>
       <c r="F35">
-        <v>129.0161897</v>
+        <v>129.0059139</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1988,25 +2120,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>21150561015</v>
+        <v>50000002925</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E36">
-        <v>35.1810469</v>
+        <v>35.24970136</v>
       </c>
       <c r="F36">
-        <v>128.988722</v>
+        <v>129.0124861</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2015,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2026,25 +2158,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>21150561009</v>
+        <v>21150641002</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E37">
-        <v>35.18123059</v>
+        <v>35.12837244</v>
       </c>
       <c r="F37">
-        <v>128.9883521</v>
+        <v>128.9728608</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2056,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2064,25 +2196,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>21150631021</v>
+        <v>21100571004</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E38">
-        <v>35.14020955</v>
+        <v>35.10766361</v>
       </c>
       <c r="F38">
-        <v>128.9896003</v>
+        <v>128.967766</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2091,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2102,37 +2234,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>21080541011</v>
+        <v>21100551004</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E39">
-        <v>35.26702524</v>
+        <v>35.10487441</v>
       </c>
       <c r="F39">
-        <v>129.0196177</v>
+        <v>128.9703232</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2140,22 +2272,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>21150531009</v>
+        <v>21150621005</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E40">
-        <v>35.18679193</v>
+        <v>35.14645099</v>
       </c>
       <c r="F40">
-        <v>128.9898277</v>
+        <v>128.9949091</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2170,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2178,22 +2310,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>50000000502</v>
+        <v>21150631036</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E41">
-        <v>35.10557575</v>
+        <v>35.14667944</v>
       </c>
       <c r="F41">
-        <v>128.9675998</v>
+        <v>128.9947639</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2205,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2216,25 +2348,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>21100571020</v>
+        <v>21080541024</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E42">
-        <v>35.11232061</v>
+        <v>35.25013834</v>
       </c>
       <c r="F42">
-        <v>128.9642117</v>
+        <v>129.0126867</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2243,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2254,19 +2386,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>21100521011</v>
+        <v>21150591007</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E43">
-        <v>35.1037143</v>
+        <v>35.15277034</v>
       </c>
       <c r="F43">
-        <v>129.0036412</v>
+        <v>128.9904155</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2278,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2295,19 +2427,19 @@
         <v>21</v>
       </c>
       <c r="C44">
-        <v>21100571002</v>
+        <v>21100561004</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E44">
-        <v>35.10634479</v>
+        <v>35.10431229</v>
       </c>
       <c r="F44">
-        <v>128.9663905</v>
+        <v>128.963989</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2322,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2330,22 +2462,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C45">
-        <v>21100571004</v>
+        <v>50000002056</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E45">
-        <v>35.10766361</v>
+        <v>35.08986526</v>
       </c>
       <c r="F45">
-        <v>128.967766</v>
+        <v>128.9741339</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2360,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2368,25 +2500,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C46">
-        <v>21100511001</v>
+        <v>21150641006</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E46">
-        <v>35.0990903</v>
+        <v>35.12862952</v>
       </c>
       <c r="F46">
-        <v>128.9895433</v>
+        <v>128.9728668</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2395,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2406,25 +2538,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>21080561031</v>
+        <v>21100571006</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E47">
-        <v>35.21195572</v>
+        <v>35.11260332</v>
       </c>
       <c r="F47">
-        <v>129.0105266</v>
+        <v>128.964507</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2433,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2444,37 +2576,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C48">
-        <v>50000002928</v>
+        <v>21080541023</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E48">
-        <v>35.26654113</v>
+        <v>35.250444</v>
       </c>
       <c r="F48">
-        <v>129.0164461</v>
+        <v>129.0125924</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2485,16 +2617,16 @@
         <v>42</v>
       </c>
       <c r="C49">
-        <v>21080551001</v>
+        <v>21150601011</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E49">
-        <v>35.22507745</v>
+        <v>35.15549786</v>
       </c>
       <c r="F49">
-        <v>129.0096958</v>
+        <v>128.9955049</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2503,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2520,25 +2652,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50">
-        <v>50000002925</v>
+        <v>21100511002</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E50">
-        <v>35.24970136</v>
+        <v>35.09937318</v>
       </c>
       <c r="F50">
-        <v>129.0124861</v>
+        <v>128.9886722</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2547,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2558,25 +2690,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C51">
-        <v>50000002970</v>
+        <v>21100551007</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E51">
-        <v>35.21402264</v>
+        <v>35.10289012</v>
       </c>
       <c r="F51">
-        <v>129.0360258</v>
+        <v>128.9751842</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2585,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2596,19 +2728,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C52">
-        <v>21080521001</v>
+        <v>21150591013</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E52">
-        <v>35.19717513</v>
+        <v>35.15500044</v>
       </c>
       <c r="F52">
-        <v>128.9909533</v>
+        <v>128.9917189</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -2620,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2634,37 +2766,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>21080531010</v>
+        <v>21080591006</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E53">
-        <v>35.19493242</v>
+        <v>35.21367712</v>
       </c>
       <c r="F53">
-        <v>129.0067413</v>
+        <v>129.0367254</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2672,37 +2804,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54">
-        <v>21080531003</v>
+        <v>21080521016</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E54">
-        <v>35.19539811</v>
+        <v>35.19826814</v>
       </c>
       <c r="F54">
-        <v>129.0067661</v>
+        <v>128.9908058</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>2</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2710,22 +2842,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C55">
-        <v>21150561008</v>
+        <v>21080601010</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E55">
-        <v>35.17835951</v>
+        <v>35.21005828</v>
       </c>
       <c r="F55">
-        <v>128.988322</v>
+        <v>129.037611</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2737,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2751,19 +2883,19 @@
         <v>46</v>
       </c>
       <c r="C56">
-        <v>21150641006</v>
+        <v>21150561013</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E56">
-        <v>35.12862952</v>
+        <v>35.17915576</v>
       </c>
       <c r="F56">
-        <v>128.9728668</v>
+        <v>128.9886762</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2778,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2786,25 +2918,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57">
-        <v>21150641002</v>
+        <v>21080521001</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E57">
-        <v>35.12837244</v>
+        <v>35.19717513</v>
       </c>
       <c r="F57">
-        <v>128.9728608</v>
+        <v>128.9909533</v>
       </c>
       <c r="G57">
         <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2813,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2827,19 +2959,19 @@
         <v>47</v>
       </c>
       <c r="C58">
-        <v>21150531010</v>
+        <v>21150561009</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E58">
-        <v>35.18757207</v>
+        <v>35.18123059</v>
       </c>
       <c r="F58">
-        <v>128.9906135</v>
+        <v>128.9883521</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2854,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2862,22 +2994,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C59">
-        <v>21150571036</v>
+        <v>21150631021</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E59">
-        <v>35.16055082</v>
+        <v>35.14020955</v>
       </c>
       <c r="F59">
-        <v>128.9864878</v>
+        <v>128.9896003</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2892,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2900,37 +3032,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C60">
-        <v>21150561003</v>
+        <v>21080541006</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E60">
-        <v>35.18060909</v>
+        <v>35.26035522</v>
       </c>
       <c r="F60">
-        <v>128.9857998</v>
+        <v>129.0161897</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2938,37 +3070,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>21150631024</v>
+        <v>21080541011</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E61">
-        <v>35.14057573</v>
+        <v>35.26702524</v>
       </c>
       <c r="F61">
-        <v>128.9898325</v>
+        <v>129.0196177</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2976,22 +3108,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C62">
-        <v>21150531007</v>
+        <v>21150531009</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E62">
-        <v>35.18367014</v>
+        <v>35.18679193</v>
       </c>
       <c r="F62">
-        <v>128.9900952</v>
+        <v>128.9898277</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3006,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3014,22 +3146,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C63">
-        <v>21100651008</v>
+        <v>21150561015</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E63">
-        <v>35.08999241</v>
+        <v>35.1810469</v>
       </c>
       <c r="F63">
-        <v>128.9995111</v>
+        <v>128.988722</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3041,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3055,34 +3187,34 @@
         <v>51</v>
       </c>
       <c r="C64">
-        <v>21100641004</v>
+        <v>21150571035</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E64">
-        <v>35.08558587</v>
+        <v>35.16041194</v>
       </c>
       <c r="F64">
-        <v>128.9864234</v>
+        <v>128.9862184</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3090,37 +3222,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C65">
-        <v>21100511002</v>
+        <v>21100641007</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E65">
-        <v>35.09937318</v>
+        <v>35.0863929</v>
       </c>
       <c r="F65">
-        <v>128.9886722</v>
+        <v>128.9934291</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>3</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65">
         <v>4</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3128,37 +3260,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C66">
-        <v>21100551007</v>
+        <v>21100641008</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E66">
-        <v>35.10289012</v>
+        <v>35.08641155</v>
       </c>
       <c r="F66">
-        <v>128.9751842</v>
+        <v>128.9931171</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>3</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66">
         <v>4</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3166,25 +3298,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C67">
-        <v>21100581003</v>
+        <v>21150631026</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E67">
-        <v>35.08965551</v>
+        <v>35.1447578</v>
       </c>
       <c r="F67">
-        <v>128.973735</v>
+        <v>128.991211</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3193,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3204,37 +3336,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C68">
-        <v>21150591015</v>
+        <v>21100621012</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E68">
-        <v>35.15519429</v>
+        <v>35.05743966</v>
       </c>
       <c r="F68">
-        <v>128.9919245</v>
+        <v>128.9709729</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3242,22 +3374,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C69">
-        <v>50000002534</v>
+        <v>21100521011</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E69">
-        <v>35.08274268</v>
+        <v>35.1037143</v>
       </c>
       <c r="F69">
-        <v>128.9660687</v>
+        <v>129.0036412</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3272,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3280,25 +3412,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C70">
-        <v>21150541005</v>
+        <v>21100571020</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E70">
-        <v>35.18551602</v>
+        <v>35.11232061</v>
       </c>
       <c r="F70">
-        <v>128.9993502</v>
+        <v>128.9642117</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3307,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3318,37 +3450,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C71">
-        <v>21080541009</v>
+        <v>21100571007</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E71">
-        <v>35.2604749</v>
+        <v>35.11409622</v>
       </c>
       <c r="F71">
-        <v>129.0164753</v>
+        <v>128.9626186</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3356,25 +3488,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C72">
-        <v>21080591004</v>
+        <v>21080561031</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E72">
-        <v>35.21308893</v>
+        <v>35.21195572</v>
       </c>
       <c r="F72">
-        <v>129.0372344</v>
+        <v>129.0105266</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3386,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3394,37 +3526,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C73">
-        <v>21080551004</v>
+        <v>21080531010</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E73">
-        <v>35.22516212</v>
+        <v>35.19493242</v>
       </c>
       <c r="F73">
-        <v>129.0101237</v>
+        <v>129.0067413</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3432,22 +3564,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C74">
-        <v>21080521020</v>
+        <v>50000002970</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E74">
-        <v>35.20246068</v>
+        <v>35.21402264</v>
       </c>
       <c r="F74">
-        <v>128.9990339</v>
+        <v>129.0360258</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3462,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3470,22 +3602,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C75">
-        <v>21080601014</v>
+        <v>21080551001</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E75">
-        <v>35.21038448</v>
+        <v>35.22507745</v>
       </c>
       <c r="F75">
-        <v>129.0380418</v>
+        <v>129.0096958</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3500,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3508,37 +3640,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>21100641006</v>
+        <v>21080571015</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E76">
-        <v>35.08583375</v>
+        <v>35.21197612</v>
       </c>
       <c r="F76">
-        <v>128.9861538</v>
+        <v>129.0044102</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3546,37 +3678,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>21150531016</v>
+        <v>50000002928</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E77">
-        <v>35.18735352</v>
+        <v>35.26654113</v>
       </c>
       <c r="F77">
-        <v>128.990975</v>
+        <v>129.0164461</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3584,37 +3716,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C78">
-        <v>21100631004</v>
+        <v>21080531003</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E78">
-        <v>35.06426621</v>
+        <v>35.19539811</v>
       </c>
       <c r="F78">
-        <v>128.9793505</v>
+        <v>129.0067661</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3622,22 +3754,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C79">
-        <v>21150641003</v>
+        <v>21150571036</v>
       </c>
       <c r="D79" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E79">
-        <v>35.12860891</v>
+        <v>35.16055082</v>
       </c>
       <c r="F79">
-        <v>128.9713419</v>
+        <v>128.9864878</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3652,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3660,22 +3792,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C80">
-        <v>21150641005</v>
+        <v>21150531010</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E80">
-        <v>35.12887805</v>
+        <v>35.18757207</v>
       </c>
       <c r="F80">
-        <v>128.9711766</v>
+        <v>128.9906135</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3690,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3698,22 +3830,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C81">
-        <v>21150531005</v>
+        <v>21150531007</v>
       </c>
       <c r="D81" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E81">
-        <v>35.18393343</v>
+        <v>35.18367014</v>
       </c>
       <c r="F81">
-        <v>128.9898679</v>
+        <v>128.9900952</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3728,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3736,22 +3868,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C82">
-        <v>21150551002</v>
+        <v>21150561008</v>
       </c>
       <c r="D82" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E82">
-        <v>35.17103491</v>
+        <v>35.17835951</v>
       </c>
       <c r="F82">
-        <v>128.9830798</v>
+        <v>128.988322</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3766,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="L82">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3774,25 +3906,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C83">
-        <v>21150631022</v>
+        <v>21150621003</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E83">
-        <v>35.14470861</v>
+        <v>35.14940331</v>
       </c>
       <c r="F83">
-        <v>128.9879107</v>
+        <v>128.9997637</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3804,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3812,22 +3944,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C84">
-        <v>50000000045</v>
+        <v>21150631024</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E84">
-        <v>35.1079039</v>
+        <v>35.14057573</v>
       </c>
       <c r="F84">
-        <v>128.9671227</v>
+        <v>128.9898325</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3836,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3850,22 +3982,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C85">
-        <v>50000002052</v>
+        <v>21150561003</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E85">
-        <v>35.08157571</v>
+        <v>35.18060909</v>
       </c>
       <c r="F85">
-        <v>128.9867389</v>
+        <v>128.9857998</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3877,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3888,25 +4020,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C86">
-        <v>50000002053</v>
+        <v>21100621003</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E86">
-        <v>35.0813905</v>
+        <v>35.05604727</v>
       </c>
       <c r="F86">
-        <v>128.9867672</v>
+        <v>128.9716518</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3918,7 +4050,7 @@
         <v>4</v>
       </c>
       <c r="L86">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3926,37 +4058,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>21080571012</v>
+        <v>50000000045</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E87">
-        <v>35.21189322</v>
+        <v>35.1079039</v>
       </c>
       <c r="F87">
-        <v>129.0102791</v>
+        <v>128.9671227</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3964,25 +4096,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C88">
-        <v>21100581004</v>
+        <v>50000002426</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E88">
-        <v>35.09034744</v>
+        <v>35.05641032</v>
       </c>
       <c r="F88">
-        <v>128.9731903</v>
+        <v>128.9704292</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3994,7 +4126,7 @@
         <v>4</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4002,25 +4134,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C89">
-        <v>21100601027</v>
+        <v>21100531007</v>
       </c>
       <c r="D89" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E89">
-        <v>35.08275245</v>
+        <v>35.09804436</v>
       </c>
       <c r="F89">
-        <v>128.9656782</v>
+        <v>128.9941039</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4032,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="L89">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4040,25 +4172,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C90">
-        <v>21100601028</v>
+        <v>21100561012</v>
       </c>
       <c r="D90" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E90">
-        <v>35.08248972</v>
+        <v>35.1044662</v>
       </c>
       <c r="F90">
-        <v>128.9659117</v>
+        <v>128.9704326</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4070,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="L90">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4078,37 +4210,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C91">
-        <v>21100641007</v>
+        <v>21100611003</v>
       </c>
       <c r="D91" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E91">
-        <v>35.0863929</v>
+        <v>35.08059637</v>
       </c>
       <c r="F91">
-        <v>128.9934291</v>
+        <v>128.9702691</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>4</v>
       </c>
       <c r="L91">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4116,37 +4248,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C92">
-        <v>21080541007</v>
+        <v>21100601001</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E92">
-        <v>35.25859442</v>
+        <v>35.08076614</v>
       </c>
       <c r="F92">
-        <v>129.0148255</v>
+        <v>128.9709486</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L92">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4154,37 +4286,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C93">
-        <v>21080541008</v>
+        <v>21100611011</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E93">
-        <v>35.2585571</v>
+        <v>35.07500029</v>
       </c>
       <c r="F93">
-        <v>129.0151224</v>
+        <v>128.9768694</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L93">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4192,37 +4324,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C94">
-        <v>21100641008</v>
+        <v>21100531005</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E94">
-        <v>35.08641155</v>
+        <v>35.10051478</v>
       </c>
       <c r="F94">
-        <v>128.9931171</v>
+        <v>128.9938169</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>4</v>
       </c>
       <c r="L94">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4230,37 +4362,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C95">
-        <v>21150611002</v>
+        <v>21100511008</v>
       </c>
       <c r="D95" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E95">
-        <v>35.15072713</v>
+        <v>35.09904182</v>
       </c>
       <c r="F95">
-        <v>129.0088707</v>
+        <v>128.9934538</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L95">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4268,28 +4400,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C96">
-        <v>21100631003</v>
+        <v>21100641005</v>
       </c>
       <c r="D96" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E96">
-        <v>35.06430394</v>
+        <v>35.08594461</v>
       </c>
       <c r="F96">
-        <v>128.9796673</v>
+        <v>128.9903625</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -4298,7 +4430,7 @@
         <v>4</v>
       </c>
       <c r="L96">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4306,25 +4438,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C97">
-        <v>21080591010</v>
+        <v>21100641003</v>
       </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E97">
-        <v>35.2144691</v>
+        <v>35.08545481</v>
       </c>
       <c r="F97">
-        <v>129.0368354</v>
+        <v>128.9905792</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4333,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L97">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4344,22 +4476,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C98">
-        <v>21100631001</v>
+        <v>21150591015</v>
       </c>
       <c r="D98" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E98">
-        <v>35.06637814</v>
+        <v>35.15519429</v>
       </c>
       <c r="F98">
-        <v>128.9796633</v>
+        <v>128.9919245</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4371,10 +4503,10 @@
         <v>4</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4382,19 +4514,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C99">
-        <v>21080541025</v>
+        <v>21100641004</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E99">
-        <v>35.25203147</v>
+        <v>35.08558587</v>
       </c>
       <c r="F99">
-        <v>129.0142111</v>
+        <v>128.9864234</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4403,16 +4535,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4420,22 +4552,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C100">
-        <v>21150521001</v>
+        <v>50000002534</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E100">
-        <v>35.18175194</v>
+        <v>35.08274268</v>
       </c>
       <c r="F100">
-        <v>128.9857794</v>
+        <v>128.9660687</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4447,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4458,22 +4590,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C101">
-        <v>50000002220</v>
+        <v>21100581003</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E101">
-        <v>35.17129681</v>
+        <v>35.08965551</v>
       </c>
       <c r="F101">
-        <v>128.9831579</v>
+        <v>128.973735</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4485,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4496,25 +4628,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C102">
-        <v>21150561012</v>
+        <v>21080551003</v>
       </c>
       <c r="D102" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E102">
-        <v>35.17480742</v>
+        <v>35.23147579</v>
       </c>
       <c r="F102">
-        <v>128.9841008</v>
+        <v>129.0133968</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4523,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4534,25 +4666,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C103">
-        <v>21150511001</v>
+        <v>21080631003</v>
       </c>
       <c r="D103" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E103">
-        <v>35.17751303</v>
+        <v>35.23168829</v>
       </c>
       <c r="F103">
-        <v>128.9764963</v>
+        <v>129.013041</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4561,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4572,37 +4704,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C104">
-        <v>21150531001</v>
+        <v>21080541007</v>
       </c>
       <c r="D104" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E104">
-        <v>35.18633412</v>
+        <v>35.25859442</v>
       </c>
       <c r="F104">
-        <v>128.9894216</v>
+        <v>129.0148255</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4610,25 +4742,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C105">
-        <v>21100551002</v>
+        <v>21080571012</v>
       </c>
       <c r="D105" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E105">
-        <v>35.10214973</v>
+        <v>35.21189322</v>
       </c>
       <c r="F105">
-        <v>128.9777959</v>
+        <v>129.0102791</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4637,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4648,37 +4780,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C106">
-        <v>21100571031</v>
+        <v>21080541009</v>
       </c>
       <c r="D106" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E106">
-        <v>35.1114089</v>
+        <v>35.2604749</v>
       </c>
       <c r="F106">
-        <v>128.9653082</v>
+        <v>129.0164753</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4686,25 +4818,25 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C107">
-        <v>21100571008</v>
+        <v>21080571013</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E107">
-        <v>35.11336585</v>
+        <v>35.21198383</v>
       </c>
       <c r="F107">
-        <v>128.9638513</v>
+        <v>129.0047718</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4713,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4724,25 +4856,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C108">
-        <v>21100571003</v>
+        <v>21150541005</v>
       </c>
       <c r="D108" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E108">
-        <v>35.10801339</v>
+        <v>35.18551602</v>
       </c>
       <c r="F108">
-        <v>128.9472931</v>
+        <v>128.9993502</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4751,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4762,25 +4894,25 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C109">
-        <v>21150541004</v>
+        <v>21080521003</v>
       </c>
       <c r="D109" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E109">
-        <v>35.18606015</v>
+        <v>35.20520878</v>
       </c>
       <c r="F109">
-        <v>128.9994031</v>
+        <v>128.9958289</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4789,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4800,37 +4932,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C110">
-        <v>21100621014</v>
+        <v>21150571027</v>
       </c>
       <c r="D110" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E110">
-        <v>35.04903932</v>
+        <v>35.16090027</v>
       </c>
       <c r="F110">
-        <v>128.9697239</v>
+        <v>128.9840455</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -4838,22 +4970,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C111">
-        <v>21080601001</v>
+        <v>21080601014</v>
       </c>
       <c r="D111" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E111">
-        <v>35.20974979</v>
+        <v>35.21038448</v>
       </c>
       <c r="F111">
-        <v>129.0356458</v>
+        <v>129.0380418</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4868,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="L111">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -4876,25 +5008,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C112">
-        <v>21080601005</v>
+        <v>21150631002</v>
       </c>
       <c r="D112" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E112">
-        <v>35.20947506</v>
+        <v>35.13855828</v>
       </c>
       <c r="F112">
-        <v>129.0383243</v>
+        <v>128.9785365</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4903,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -4914,22 +5046,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C113">
-        <v>21080521016</v>
+        <v>21080591004</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E113">
-        <v>35.19826814</v>
+        <v>35.21308893</v>
       </c>
       <c r="F113">
-        <v>128.9908058</v>
+        <v>129.0372344</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4944,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="L113">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -4952,22 +5084,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C114">
-        <v>21080591011</v>
+        <v>21080551004</v>
       </c>
       <c r="D114" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E114">
-        <v>35.21429478</v>
+        <v>35.22516212</v>
       </c>
       <c r="F114">
-        <v>129.0353515</v>
+        <v>129.0101237</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4982,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="L114">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -4990,37 +5122,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C115">
-        <v>21150531003</v>
+        <v>21150631003</v>
       </c>
       <c r="D115" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E115">
-        <v>35.18584248</v>
+        <v>35.13810135</v>
       </c>
       <c r="F115">
-        <v>128.9917922</v>
+        <v>128.9783142</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>1</v>
       </c>
       <c r="L115">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5028,37 +5160,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C116">
-        <v>21150531002</v>
+        <v>21150621002</v>
       </c>
       <c r="D116" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E116">
-        <v>35.18483032</v>
+        <v>35.14914942</v>
       </c>
       <c r="F116">
-        <v>128.9933289</v>
+        <v>129.0000063</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
       <c r="L116">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5066,22 +5198,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C117">
-        <v>21080581002</v>
+        <v>21080521020</v>
       </c>
       <c r="D117" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E117">
-        <v>35.20944039</v>
+        <v>35.20246068</v>
       </c>
       <c r="F117">
-        <v>129.0114163</v>
+        <v>128.9990339</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5096,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="L117">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5104,25 +5236,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C118">
-        <v>21080541005</v>
+        <v>21150561007</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E118">
-        <v>35.26211547</v>
+        <v>35.17574031</v>
       </c>
       <c r="F118">
-        <v>129.0168758</v>
+        <v>128.9882885</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5131,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5142,25 +5274,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C119">
-        <v>21080561004</v>
+        <v>21150641014</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E119">
-        <v>35.21302104</v>
+        <v>35.13069231</v>
       </c>
       <c r="F119">
-        <v>129.018153</v>
+        <v>128.9714454</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5169,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L119">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5180,37 +5312,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C120">
-        <v>21150631028</v>
+        <v>21100641006</v>
       </c>
       <c r="D120" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E120">
-        <v>35.14298719</v>
+        <v>35.08583375</v>
       </c>
       <c r="F120">
-        <v>128.9864645</v>
+        <v>128.9861538</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L120">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5218,25 +5350,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C121">
-        <v>21150551010</v>
+        <v>21100611015</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E121">
-        <v>35.17159759</v>
+        <v>35.07487866</v>
       </c>
       <c r="F121">
-        <v>128.9829462</v>
+        <v>128.9765081</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5245,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5256,25 +5388,25 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C122">
-        <v>21150631023</v>
+        <v>21100611007</v>
       </c>
       <c r="D122" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E122">
-        <v>35.1448169</v>
+        <v>35.07836399</v>
       </c>
       <c r="F122">
-        <v>128.9884569</v>
+        <v>128.9774625</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5283,10 +5415,10 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L122">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5294,22 +5426,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C123">
-        <v>21150561005</v>
+        <v>21150531005</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E123">
-        <v>35.17476464</v>
+        <v>35.18393343</v>
       </c>
       <c r="F123">
-        <v>128.9843933</v>
+        <v>128.9898679</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5324,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="L123">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5332,22 +5464,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C124">
-        <v>21150581029</v>
+        <v>21150551002</v>
       </c>
       <c r="D124" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E124">
-        <v>35.15529065</v>
+        <v>35.17103491</v>
       </c>
       <c r="F124">
-        <v>128.9790647</v>
+        <v>128.9830798</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5362,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="L124">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5370,25 +5502,25 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C125">
-        <v>21080511015</v>
+        <v>21100601029</v>
       </c>
       <c r="D125" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E125">
-        <v>35.20852443</v>
+        <v>35.07917127</v>
       </c>
       <c r="F125">
-        <v>129.0050244</v>
+        <v>128.9648301</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5397,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L125">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5408,22 +5540,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C126">
-        <v>21150601006</v>
+        <v>21150641003</v>
       </c>
       <c r="D126" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E126">
-        <v>35.15264441</v>
+        <v>35.12860891</v>
       </c>
       <c r="F126">
-        <v>129.0010717</v>
+        <v>128.9713419</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5438,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="L126">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5446,22 +5578,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C127">
-        <v>21100561020</v>
+        <v>21150641005</v>
       </c>
       <c r="D127" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E127">
-        <v>35.10611708</v>
+        <v>35.12887805</v>
       </c>
       <c r="F127">
-        <v>128.9652591</v>
+        <v>128.9711766</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5470,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L127">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5484,37 +5616,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C128">
-        <v>21080511003</v>
+        <v>21100631004</v>
       </c>
       <c r="D128" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E128">
-        <v>35.20847841</v>
+        <v>35.06426621</v>
       </c>
       <c r="F128">
-        <v>129.0053738</v>
+        <v>128.9793505</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5522,22 +5654,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C129">
-        <v>21100621020</v>
+        <v>21150531016</v>
       </c>
       <c r="D129" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E129">
-        <v>35.04906491</v>
+        <v>35.18735352</v>
       </c>
       <c r="F129">
-        <v>128.9700944</v>
+        <v>128.990975</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5546,13 +5678,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L129">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5560,25 +5692,25 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C130">
-        <v>21080511007</v>
+        <v>21100571021</v>
       </c>
       <c r="D130" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E130">
-        <v>35.20968489</v>
+        <v>35.11465428</v>
       </c>
       <c r="F130">
-        <v>129.0031188</v>
+        <v>128.9626243</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5587,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5598,25 +5730,25 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C131">
-        <v>21080511006</v>
+        <v>21150631022</v>
       </c>
       <c r="D131" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E131">
-        <v>35.20952561</v>
+        <v>35.14470861</v>
       </c>
       <c r="F131">
-        <v>129.0032192</v>
+        <v>128.9879107</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5625,10 +5757,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5636,37 +5768,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C132">
-        <v>21080531002</v>
+        <v>21080521012</v>
       </c>
       <c r="D132" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E132">
-        <v>35.19545038</v>
+        <v>35.19875092</v>
       </c>
       <c r="F132">
-        <v>129.0103977</v>
+        <v>128.9965812</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>2</v>
       </c>
       <c r="L132">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5674,22 +5806,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C133">
-        <v>21150581018</v>
+        <v>21100601027</v>
       </c>
       <c r="D133" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E133">
-        <v>35.15508376</v>
+        <v>35.08275245</v>
       </c>
       <c r="F133">
-        <v>128.9802819</v>
+        <v>128.9656782</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -5701,10 +5833,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5712,22 +5844,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C134">
-        <v>21150511002</v>
+        <v>21100581004</v>
       </c>
       <c r="D134" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E134">
-        <v>35.1766192</v>
+        <v>35.09034744</v>
       </c>
       <c r="F134">
-        <v>128.9761335</v>
+        <v>128.9731903</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -5739,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L134">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5750,25 +5882,25 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C135">
-        <v>21150641043</v>
+        <v>21080561002</v>
       </c>
       <c r="D135" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E135">
-        <v>35.12975323</v>
+        <v>35.21343146</v>
       </c>
       <c r="F135">
-        <v>128.9712248</v>
+        <v>129.022722</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5777,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L135">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5788,37 +5920,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C136">
-        <v>50000002695</v>
+        <v>21080561005</v>
       </c>
       <c r="D136" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E136">
-        <v>35.18496203</v>
+        <v>35.21315496</v>
       </c>
       <c r="F136">
-        <v>128.9912149</v>
+        <v>129.0228631</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5826,22 +5958,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C137">
-        <v>21150541006</v>
+        <v>50000002053</v>
       </c>
       <c r="D137" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E137">
-        <v>35.18456041</v>
+        <v>35.0813905</v>
       </c>
       <c r="F137">
-        <v>128.9932817</v>
+        <v>128.9867672</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -5850,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5864,19 +5996,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C138">
-        <v>21150531008</v>
+        <v>21080541008</v>
       </c>
       <c r="D138" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E138">
-        <v>35.18577033</v>
+        <v>35.2585571</v>
       </c>
       <c r="F138">
-        <v>128.9915216</v>
+        <v>129.0151224</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5885,16 +6017,16 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5902,28 +6034,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C139">
-        <v>21080541021</v>
+        <v>21080571003</v>
       </c>
       <c r="D139" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E139">
-        <v>35.25318892</v>
+        <v>35.21040944</v>
       </c>
       <c r="F139">
-        <v>129.0137684</v>
+        <v>129.007139</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -5932,7 +6064,7 @@
         <v>2</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5940,37 +6072,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C140">
-        <v>21080541026</v>
+        <v>50000002052</v>
       </c>
       <c r="D140" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E140">
-        <v>35.25339898</v>
+        <v>35.08157571</v>
       </c>
       <c r="F140">
-        <v>129.014005</v>
+        <v>128.9867389</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5978,22 +6110,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C141">
-        <v>21080531007</v>
+        <v>21100601028</v>
       </c>
       <c r="D141" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E141">
-        <v>35.195233</v>
+        <v>35.08248972</v>
       </c>
       <c r="F141">
-        <v>129.0105803</v>
+        <v>128.9659117</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -6002,13 +6134,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6016,36 +6148,2886 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
+        <v>93</v>
+      </c>
+      <c r="C142">
+        <v>21150631009</v>
+      </c>
+      <c r="D142" t="s">
+        <v>136</v>
+      </c>
+      <c r="E142">
+        <v>35.1390613</v>
+      </c>
+      <c r="F142">
+        <v>128.9773046</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143">
+        <v>21100631003</v>
+      </c>
+      <c r="D143" t="s">
+        <v>135</v>
+      </c>
+      <c r="E143">
+        <v>35.06430394</v>
+      </c>
+      <c r="F143">
+        <v>128.9796673</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>4</v>
+      </c>
+      <c r="L143">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144">
+        <v>21100571008</v>
+      </c>
+      <c r="D144" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144">
+        <v>35.11336585</v>
+      </c>
+      <c r="F144">
+        <v>128.9638513</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>4</v>
+      </c>
+      <c r="L144">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145">
+        <v>21100551002</v>
+      </c>
+      <c r="D145" t="s">
+        <v>135</v>
+      </c>
+      <c r="E145">
+        <v>35.10214973</v>
+      </c>
+      <c r="F145">
+        <v>128.9777959</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146">
+        <v>21150631012</v>
+      </c>
+      <c r="D146" t="s">
+        <v>136</v>
+      </c>
+      <c r="E146">
+        <v>35.14018959</v>
+      </c>
+      <c r="F146">
+        <v>128.9815345</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147">
+        <v>21150621001</v>
+      </c>
+      <c r="D147" t="s">
+        <v>136</v>
+      </c>
+      <c r="E147">
+        <v>35.14989092</v>
+      </c>
+      <c r="F147">
+        <v>128.998765</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148">
+        <v>21150611002</v>
+      </c>
+      <c r="D148" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148">
+        <v>35.15072713</v>
+      </c>
+      <c r="F148">
+        <v>129.0088707</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149">
+        <v>21100651016</v>
+      </c>
+      <c r="D149" t="s">
+        <v>135</v>
+      </c>
+      <c r="E149">
+        <v>35.0863325</v>
+      </c>
+      <c r="F149">
+        <v>129.0068682</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150">
+        <v>21100631001</v>
+      </c>
+      <c r="D150" t="s">
+        <v>135</v>
+      </c>
+      <c r="E150">
+        <v>35.06637814</v>
+      </c>
+      <c r="F150">
+        <v>128.9796633</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151">
+        <v>21100611010</v>
+      </c>
+      <c r="D151" t="s">
+        <v>135</v>
+      </c>
+      <c r="E151">
+        <v>35.07814639</v>
+      </c>
+      <c r="F151">
+        <v>128.9771099</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>4</v>
+      </c>
+      <c r="L151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152">
+        <v>21100591007</v>
+      </c>
+      <c r="D152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152">
+        <v>35.09480258</v>
+      </c>
+      <c r="F152">
+        <v>128.9620757</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>4</v>
+      </c>
+      <c r="L152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153">
+        <v>21100621004</v>
+      </c>
+      <c r="D153" t="s">
+        <v>135</v>
+      </c>
+      <c r="E153">
+        <v>35.05506483</v>
+      </c>
+      <c r="F153">
+        <v>128.9716905</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>4</v>
+      </c>
+      <c r="L153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>100</v>
+      </c>
+      <c r="C154">
+        <v>21100651010</v>
+      </c>
+      <c r="D154" t="s">
+        <v>135</v>
+      </c>
+      <c r="E154">
+        <v>35.09073936</v>
+      </c>
+      <c r="F154">
+        <v>128.9974202</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>4</v>
+      </c>
+      <c r="L154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>100</v>
+      </c>
+      <c r="C155">
+        <v>21100651009</v>
+      </c>
+      <c r="D155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E155">
+        <v>35.09093573</v>
+      </c>
+      <c r="F155">
+        <v>128.9976987</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>4</v>
+      </c>
+      <c r="L155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156">
+        <v>21080591010</v>
+      </c>
+      <c r="D156" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156">
+        <v>35.2144691</v>
+      </c>
+      <c r="F156">
+        <v>129.0368354</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>101</v>
+      </c>
+      <c r="C157">
+        <v>21100641002</v>
+      </c>
+      <c r="D157" t="s">
+        <v>135</v>
+      </c>
+      <c r="E157">
+        <v>35.08797289</v>
+      </c>
+      <c r="F157">
+        <v>128.9942619</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>4</v>
+      </c>
+      <c r="L157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>101</v>
+      </c>
+      <c r="C158">
+        <v>21100641001</v>
+      </c>
+      <c r="D158" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158">
+        <v>35.08803267</v>
+      </c>
+      <c r="F158">
+        <v>128.9939549</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>4</v>
+      </c>
+      <c r="L158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159">
+        <v>21150511001</v>
+      </c>
+      <c r="D159" t="s">
+        <v>136</v>
+      </c>
+      <c r="E159">
+        <v>35.17751303</v>
+      </c>
+      <c r="F159">
+        <v>128.9764963</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160">
+        <v>21080541025</v>
+      </c>
+      <c r="D160" t="s">
+        <v>134</v>
+      </c>
+      <c r="E160">
+        <v>35.25203147</v>
+      </c>
+      <c r="F160">
+        <v>129.0142111</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>104</v>
+      </c>
+      <c r="C161">
+        <v>21150531001</v>
+      </c>
+      <c r="D161" t="s">
+        <v>136</v>
+      </c>
+      <c r="E161">
+        <v>35.18633412</v>
+      </c>
+      <c r="F161">
+        <v>128.9894216</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162">
+        <v>21150521001</v>
+      </c>
+      <c r="D162" t="s">
+        <v>136</v>
+      </c>
+      <c r="E162">
+        <v>35.18175194</v>
+      </c>
+      <c r="F162">
+        <v>128.9857794</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C163">
+        <v>21150561012</v>
+      </c>
+      <c r="D163" t="s">
+        <v>136</v>
+      </c>
+      <c r="E163">
+        <v>35.17480742</v>
+      </c>
+      <c r="F163">
+        <v>128.9841008</v>
+      </c>
+      <c r="G163">
+        <v>2</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164">
+        <v>50000002220</v>
+      </c>
+      <c r="D164" t="s">
+        <v>136</v>
+      </c>
+      <c r="E164">
+        <v>35.17129681</v>
+      </c>
+      <c r="F164">
+        <v>128.9831579</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>106</v>
+      </c>
+      <c r="C165">
+        <v>21080511006</v>
+      </c>
+      <c r="D165" t="s">
+        <v>134</v>
+      </c>
+      <c r="E165">
+        <v>35.20952561</v>
+      </c>
+      <c r="F165">
+        <v>129.0032192</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
         <v>89</v>
       </c>
-      <c r="C142">
+      <c r="C166">
+        <v>21150631023</v>
+      </c>
+      <c r="D166" t="s">
+        <v>136</v>
+      </c>
+      <c r="E166">
+        <v>35.1448169</v>
+      </c>
+      <c r="F166">
+        <v>128.9884569</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167">
+        <v>21080631002</v>
+      </c>
+      <c r="D167" t="s">
+        <v>134</v>
+      </c>
+      <c r="E167">
+        <v>35.23356875</v>
+      </c>
+      <c r="F167">
+        <v>129.0133995</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168">
+        <v>21080521010</v>
+      </c>
+      <c r="D168" t="s">
+        <v>134</v>
+      </c>
+      <c r="E168">
+        <v>35.19898837</v>
+      </c>
+      <c r="F168">
+        <v>128.9963279</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>107</v>
+      </c>
+      <c r="C169">
+        <v>21080551002</v>
+      </c>
+      <c r="D169" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169">
+        <v>35.23398718</v>
+      </c>
+      <c r="F169">
+        <v>129.0138505</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>108</v>
+      </c>
+      <c r="C170">
+        <v>21100571003</v>
+      </c>
+      <c r="D170" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170">
+        <v>35.10801339</v>
+      </c>
+      <c r="F170">
+        <v>128.9472931</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>78</v>
+      </c>
+      <c r="C171">
+        <v>21150541004</v>
+      </c>
+      <c r="D171" t="s">
+        <v>136</v>
+      </c>
+      <c r="E171">
+        <v>35.18606015</v>
+      </c>
+      <c r="F171">
+        <v>128.9994031</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>109</v>
+      </c>
+      <c r="C172">
+        <v>21150641001</v>
+      </c>
+      <c r="D172" t="s">
+        <v>136</v>
+      </c>
+      <c r="E172">
+        <v>35.12856641</v>
+      </c>
+      <c r="F172">
+        <v>128.9748023</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173">
+        <v>21150601009</v>
+      </c>
+      <c r="D173" t="s">
+        <v>136</v>
+      </c>
+      <c r="E173">
+        <v>35.15042139</v>
+      </c>
+      <c r="F173">
+        <v>128.9990834</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174">
+        <v>21150631001</v>
+      </c>
+      <c r="D174" t="s">
+        <v>136</v>
+      </c>
+      <c r="E174">
+        <v>35.13992837</v>
+      </c>
+      <c r="F174">
+        <v>128.9816748</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>109</v>
+      </c>
+      <c r="C175">
+        <v>21150641007</v>
+      </c>
+      <c r="D175" t="s">
+        <v>136</v>
+      </c>
+      <c r="E175">
+        <v>35.1286787</v>
+      </c>
+      <c r="F175">
+        <v>128.9745738</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>110</v>
+      </c>
+      <c r="C176">
+        <v>21100571031</v>
+      </c>
+      <c r="D176" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176">
+        <v>35.1114089</v>
+      </c>
+      <c r="F176">
+        <v>128.9653082</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>4</v>
+      </c>
+      <c r="L176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>111</v>
+      </c>
+      <c r="C177">
+        <v>50000002631</v>
+      </c>
+      <c r="D177" t="s">
+        <v>135</v>
+      </c>
+      <c r="E177">
+        <v>35.09972368</v>
+      </c>
+      <c r="F177">
+        <v>128.9923439</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>4</v>
+      </c>
+      <c r="L177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178">
+        <v>21100581015</v>
+      </c>
+      <c r="D178" t="s">
+        <v>135</v>
+      </c>
+      <c r="E178">
+        <v>35.09300897</v>
+      </c>
+      <c r="F178">
+        <v>128.9735393</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>4</v>
+      </c>
+      <c r="L178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>113</v>
+      </c>
+      <c r="C179">
+        <v>21100621014</v>
+      </c>
+      <c r="D179" t="s">
+        <v>135</v>
+      </c>
+      <c r="E179">
+        <v>35.04903932</v>
+      </c>
+      <c r="F179">
+        <v>128.9697239</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>4</v>
+      </c>
+      <c r="L179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>111</v>
+      </c>
+      <c r="C180">
+        <v>21100511003</v>
+      </c>
+      <c r="D180" t="s">
+        <v>135</v>
+      </c>
+      <c r="E180">
+        <v>35.10002633</v>
+      </c>
+      <c r="F180">
+        <v>128.9922256</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>4</v>
+      </c>
+      <c r="L180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>114</v>
+      </c>
+      <c r="C181">
+        <v>21100621023</v>
+      </c>
+      <c r="D181" t="s">
+        <v>135</v>
+      </c>
+      <c r="E181">
+        <v>35.05461949</v>
+      </c>
+      <c r="F181">
+        <v>128.970447</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>4</v>
+      </c>
+      <c r="L181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>112</v>
+      </c>
+      <c r="C182">
+        <v>21100581013</v>
+      </c>
+      <c r="D182" t="s">
+        <v>135</v>
+      </c>
+      <c r="E182">
+        <v>35.09360135</v>
+      </c>
+      <c r="F182">
+        <v>128.9737486</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>4</v>
+      </c>
+      <c r="L182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>98</v>
+      </c>
+      <c r="C183">
+        <v>21100591014</v>
+      </c>
+      <c r="D183" t="s">
+        <v>135</v>
+      </c>
+      <c r="E183">
+        <v>35.09526784</v>
+      </c>
+      <c r="F183">
+        <v>128.9622741</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>4</v>
+      </c>
+      <c r="L183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>115</v>
+      </c>
+      <c r="C184">
+        <v>21080601005</v>
+      </c>
+      <c r="D184" t="s">
+        <v>134</v>
+      </c>
+      <c r="E184">
+        <v>35.20947506</v>
+      </c>
+      <c r="F184">
+        <v>129.0383243</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185">
+        <v>21080581002</v>
+      </c>
+      <c r="D185" t="s">
+        <v>134</v>
+      </c>
+      <c r="E185">
+        <v>35.20944039</v>
+      </c>
+      <c r="F185">
+        <v>129.0114163</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>117</v>
+      </c>
+      <c r="C186">
+        <v>21150531002</v>
+      </c>
+      <c r="D186" t="s">
+        <v>136</v>
+      </c>
+      <c r="E186">
+        <v>35.18483032</v>
+      </c>
+      <c r="F186">
+        <v>128.9933289</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>3</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>118</v>
+      </c>
+      <c r="C187">
+        <v>21080601001</v>
+      </c>
+      <c r="D187" t="s">
+        <v>134</v>
+      </c>
+      <c r="E187">
+        <v>35.20974979</v>
+      </c>
+      <c r="F187">
+        <v>129.0356458</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188">
+        <v>21080591011</v>
+      </c>
+      <c r="D188" t="s">
+        <v>134</v>
+      </c>
+      <c r="E188">
+        <v>35.21429478</v>
+      </c>
+      <c r="F188">
+        <v>129.0353515</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>119</v>
+      </c>
+      <c r="C189">
+        <v>21080561004</v>
+      </c>
+      <c r="D189" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189">
+        <v>35.21302104</v>
+      </c>
+      <c r="F189">
+        <v>129.018153</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>120</v>
+      </c>
+      <c r="C190">
+        <v>21150531003</v>
+      </c>
+      <c r="D190" t="s">
+        <v>136</v>
+      </c>
+      <c r="E190">
+        <v>35.18584248</v>
+      </c>
+      <c r="F190">
+        <v>128.9917922</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>3</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>121</v>
+      </c>
+      <c r="C191">
+        <v>21080541005</v>
+      </c>
+      <c r="D191" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191">
+        <v>35.26211547</v>
+      </c>
+      <c r="F191">
+        <v>129.0168758</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>102</v>
+      </c>
+      <c r="C192">
+        <v>21150511002</v>
+      </c>
+      <c r="D192" t="s">
+        <v>136</v>
+      </c>
+      <c r="E192">
+        <v>35.1766192</v>
+      </c>
+      <c r="F192">
+        <v>128.9761335</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193">
+        <v>21150581018</v>
+      </c>
+      <c r="D193" t="s">
+        <v>136</v>
+      </c>
+      <c r="E193">
+        <v>35.15508376</v>
+      </c>
+      <c r="F193">
+        <v>128.9802819</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194">
+        <v>21150551010</v>
+      </c>
+      <c r="D194" t="s">
+        <v>136</v>
+      </c>
+      <c r="E194">
+        <v>35.17159759</v>
+      </c>
+      <c r="F194">
+        <v>128.9829462</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>106</v>
+      </c>
+      <c r="C195">
+        <v>21080511007</v>
+      </c>
+      <c r="D195" t="s">
+        <v>134</v>
+      </c>
+      <c r="E195">
+        <v>35.20968489</v>
+      </c>
+      <c r="F195">
+        <v>129.0031188</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>123</v>
+      </c>
+      <c r="C196">
+        <v>50000002016</v>
+      </c>
+      <c r="D196" t="s">
+        <v>134</v>
+      </c>
+      <c r="E196">
+        <v>35.23682129</v>
+      </c>
+      <c r="F196">
+        <v>129.0141256</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>124</v>
+      </c>
+      <c r="C197">
+        <v>21150641043</v>
+      </c>
+      <c r="D197" t="s">
+        <v>136</v>
+      </c>
+      <c r="E197">
+        <v>35.12975323</v>
+      </c>
+      <c r="F197">
+        <v>128.9712248</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>125</v>
+      </c>
+      <c r="C198">
+        <v>21080531002</v>
+      </c>
+      <c r="D198" t="s">
+        <v>134</v>
+      </c>
+      <c r="E198">
+        <v>35.19545038</v>
+      </c>
+      <c r="F198">
+        <v>129.0103977</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>105</v>
+      </c>
+      <c r="C199">
+        <v>21150561005</v>
+      </c>
+      <c r="D199" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199">
+        <v>35.17476464</v>
+      </c>
+      <c r="F199">
+        <v>128.9843933</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>61</v>
+      </c>
+      <c r="C200">
+        <v>21080511015</v>
+      </c>
+      <c r="D200" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200">
+        <v>35.20852443</v>
+      </c>
+      <c r="F200">
+        <v>129.0050244</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>113</v>
+      </c>
+      <c r="C201">
+        <v>21100621020</v>
+      </c>
+      <c r="D201" t="s">
+        <v>135</v>
+      </c>
+      <c r="E201">
+        <v>35.04906491</v>
+      </c>
+      <c r="F201">
+        <v>128.9700944</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>4</v>
+      </c>
+      <c r="L201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>126</v>
+      </c>
+      <c r="C202">
+        <v>21150601006</v>
+      </c>
+      <c r="D202" t="s">
+        <v>136</v>
+      </c>
+      <c r="E202">
+        <v>35.15264441</v>
+      </c>
+      <c r="F202">
+        <v>129.0010717</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>127</v>
+      </c>
+      <c r="C203">
+        <v>21080601007</v>
+      </c>
+      <c r="D203" t="s">
+        <v>134</v>
+      </c>
+      <c r="E203">
+        <v>35.20808255</v>
+      </c>
+      <c r="F203">
+        <v>129.0413621</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>128</v>
+      </c>
+      <c r="C204">
+        <v>21150581029</v>
+      </c>
+      <c r="D204" t="s">
+        <v>136</v>
+      </c>
+      <c r="E204">
+        <v>35.15529065</v>
+      </c>
+      <c r="F204">
+        <v>128.9790647</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>89</v>
+      </c>
+      <c r="C205">
+        <v>21150631028</v>
+      </c>
+      <c r="D205" t="s">
+        <v>136</v>
+      </c>
+      <c r="E205">
+        <v>35.14298719</v>
+      </c>
+      <c r="F205">
+        <v>128.9864645</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>127</v>
+      </c>
+      <c r="C206">
+        <v>21080601004</v>
+      </c>
+      <c r="D206" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206">
+        <v>35.20825464</v>
+      </c>
+      <c r="F206">
+        <v>129.0419274</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>129</v>
+      </c>
+      <c r="C207">
+        <v>50000002926</v>
+      </c>
+      <c r="D207" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207">
+        <v>35.25862394</v>
+      </c>
+      <c r="F207">
+        <v>129.0126902</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>61</v>
+      </c>
+      <c r="C208">
+        <v>21080511003</v>
+      </c>
+      <c r="D208" t="s">
+        <v>134</v>
+      </c>
+      <c r="E208">
+        <v>35.20847841</v>
+      </c>
+      <c r="F208">
+        <v>129.0053738</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>129</v>
+      </c>
+      <c r="C209">
+        <v>50000002927</v>
+      </c>
+      <c r="D209" t="s">
+        <v>134</v>
+      </c>
+      <c r="E209">
+        <v>35.25846359</v>
+      </c>
+      <c r="F209">
+        <v>129.0131202</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>117</v>
+      </c>
+      <c r="C210">
+        <v>21150541006</v>
+      </c>
+      <c r="D210" t="s">
+        <v>136</v>
+      </c>
+      <c r="E210">
+        <v>35.18456041</v>
+      </c>
+      <c r="F210">
+        <v>128.9932817</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>130</v>
+      </c>
+      <c r="C211">
+        <v>50000002695</v>
+      </c>
+      <c r="D211" t="s">
+        <v>136</v>
+      </c>
+      <c r="E211">
+        <v>35.18496203</v>
+      </c>
+      <c r="F211">
+        <v>128.9912149</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>2</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>131</v>
+      </c>
+      <c r="C212">
+        <v>21080541026</v>
+      </c>
+      <c r="D212" t="s">
+        <v>134</v>
+      </c>
+      <c r="E212">
+        <v>35.25339898</v>
+      </c>
+      <c r="F212">
+        <v>129.014005</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>131</v>
+      </c>
+      <c r="C213">
+        <v>21080541021</v>
+      </c>
+      <c r="D213" t="s">
+        <v>134</v>
+      </c>
+      <c r="E213">
+        <v>35.25318892</v>
+      </c>
+      <c r="F213">
+        <v>129.0137684</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>132</v>
+      </c>
+      <c r="C214">
+        <v>21150571022</v>
+      </c>
+      <c r="D214" t="s">
+        <v>136</v>
+      </c>
+      <c r="E214">
+        <v>35.16609173</v>
+      </c>
+      <c r="F214">
+        <v>128.9889914</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215">
+        <v>21150531008</v>
+      </c>
+      <c r="D215" t="s">
+        <v>136</v>
+      </c>
+      <c r="E215">
+        <v>35.18577033</v>
+      </c>
+      <c r="F215">
+        <v>128.9915216</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>2</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>125</v>
+      </c>
+      <c r="C216">
+        <v>21080531007</v>
+      </c>
+      <c r="D216" t="s">
+        <v>134</v>
+      </c>
+      <c r="E216">
+        <v>35.195233</v>
+      </c>
+      <c r="F216">
+        <v>129.0105803</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>133</v>
+      </c>
+      <c r="C217">
         <v>21150561011</v>
       </c>
-      <c r="D142" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142">
+      <c r="D217" t="s">
+        <v>136</v>
+      </c>
+      <c r="E217">
         <v>35.17347782</v>
       </c>
-      <c r="F142">
+      <c r="F217">
         <v>128.9862831</v>
       </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142">
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
         <v>3</v>
       </c>
     </row>
